--- a/Outputs/Amazon/Amazon_Invoice_Output.xlsx
+++ b/Outputs/Amazon/Amazon_Invoice_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drive_d\Python\F-AI\T4\Outputs\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F55806-461C-4291-B96B-526FD35C7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F921D0E-8CD9-421A-B6D8-19864BF06E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="984" windowWidth="19392" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="984" windowWidth="19392" windowHeight="11976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Header" sheetId="1" r:id="rId1"/>
@@ -289,15 +289,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -695,7 +692,7 @@
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>26.25</v>
       </c>
     </row>
@@ -703,7 +700,7 @@
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>245</v>
       </c>
     </row>
@@ -1694,7 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
